--- a/ПКМ/resdata PKM Temp=-29, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-29, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>941.9582087627762</v>
       </c>
       <c r="E3" t="n">
-        <v>411.9323463395297</v>
+        <v>412.5848040987123</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.6524052990876</v>
+        <v>13.65298356915907</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>537.3143345914285</v>
+        <v>537.299915741372</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>960.8581492663191</v>
+        <v>960.8299921069616</v>
       </c>
       <c r="E5" t="n">
-        <v>425.5847516386173</v>
+        <v>426.2377876678714</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7780026436829478</v>
+        <v>0.7780060636401931</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1199662589773961</v>
+        <v>0.1199718172073351</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03208413936769082</v>
+        <v>0.0320811856805524</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06337662254208183</v>
+        <v>0.06337070274680524</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00657033542988341</v>
+        <v>0.006570230725114176</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.4166391514211</v>
+        <v>462.4247614311699</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>875.1665752865482</v>
+        <v>875.1645959826011</v>
       </c>
       <c r="E6" t="n">
-        <v>425.5847516386173</v>
+        <v>426.2377876678714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7780026436829478</v>
+        <v>0.7780060636401931</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1199662589773961</v>
+        <v>0.1199718172073351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03208413936769082</v>
+        <v>0.0320811856805524</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06337662254208183</v>
+        <v>0.06337070274680524</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00657033542988341</v>
+        <v>0.006570230725114176</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285.0164599987103</v>
+        <v>285.1230103674035</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>678.1292382633029</v>
+        <v>678.2346772984448</v>
       </c>
       <c r="E7" t="n">
-        <v>425.5847516386173</v>
+        <v>426.2377876678714</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7780026436829478</v>
+        <v>0.7780060636401931</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1199662589773961</v>
+        <v>0.1199718172073351</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03208413936769082</v>
+        <v>0.0320811856805524</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06337662254208183</v>
+        <v>0.06337070274680524</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00657033542988341</v>
+        <v>0.006570230725114176</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.1042018400035</v>
+        <v>223.1845708158565</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>611.2284914511844</v>
+        <v>611.3045359497277</v>
       </c>
       <c r="E8" t="n">
-        <v>425.5847516386173</v>
+        <v>426.2377876678714</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7780026436829478</v>
+        <v>0.7780060636401931</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1199662589773961</v>
+        <v>0.1199718172073351</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03208413936769082</v>
+        <v>0.0320811856805524</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06337662254208183</v>
+        <v>0.06337070274680524</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00657033542988341</v>
+        <v>0.006570230725114176</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.1842757986154</v>
+        <v>222.2646278491263</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>610.240949480213</v>
+        <v>610.3169633134783</v>
       </c>
       <c r="E9" t="n">
-        <v>425.5847516386173</v>
+        <v>426.2377876678714</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7780026436829478</v>
+        <v>0.7780060636401931</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1199662589773961</v>
+        <v>0.1199718172073351</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03208413936769082</v>
+        <v>0.0320811856805524</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06337662254208183</v>
+        <v>0.06337070274680524</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00657033542988341</v>
+        <v>0.006570230725114176</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.6653395846332</v>
+        <v>164.7365193451217</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.8355006576796</v>
+        <v>548.9010682767333</v>
       </c>
       <c r="E10" t="n">
-        <v>425.5847516386173</v>
+        <v>426.2377876678714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7780026436829478</v>
+        <v>0.7780060636401931</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1199662589773961</v>
+        <v>0.1199718172073351</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03208413936769082</v>
+        <v>0.0320811856805524</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06337662254208183</v>
+        <v>0.06337070274680524</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00657033542988341</v>
+        <v>0.006570230725114176</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.4706694974502</v>
+        <v>108.4691124180241</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>489.411921943002</v>
+        <v>489.4004405912332</v>
       </c>
       <c r="E11" t="n">
-        <v>425.5847516386173</v>
+        <v>426.2377876678714</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7780026436829478</v>
+        <v>0.7780060636401931</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1199662589773961</v>
+        <v>0.1199718172073351</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03208413936769082</v>
+        <v>0.0320811856805524</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06337662254208183</v>
+        <v>0.06337070274680524</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00657033542988341</v>
+        <v>0.006570230725114176</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.94123844454329</v>
+        <v>12.94178659197346</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7111668545443199</v>
+        <v>0.7111969771856272</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97388398043354</v>
+        <v>11.97397267287421</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97388398043354</v>
+        <v>11.97397267287421</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97388398043354</v>
+        <v>11.97397267287421</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97388398043354</v>
+        <v>11.97397267287421</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762683027509492</v>
+        <v>4.762718305451262</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.05094889585944178</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9207998262136273</v>
+        <v>1.120217687174329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994982415000827</v>
+        <v>1.175930534514412</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9212620772915598</v>
+        <v>0.9526223312475781</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5064035528440605</v>
+        <v>0.4598333048059026</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.05011397113432</v>
+        <v>54.33621741595068</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.16638639131598</v>
+        <v>34.63138728201303</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8489189528780684</v>
+        <v>0.8492968086057926</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.564868273558837</v>
+        <v>10.30780688110607</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372125236339688</v>
+        <v>0.8367148391899789</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.510660987878989</v>
+        <v>3.452055534912911</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8022631957805394</v>
+        <v>0.8097694053292839</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.808198318380512</v>
+        <v>5.944967717918677</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4724491582999137</v>
+        <v>0.6467136389441577</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1533023435043844</v>
+        <v>0.2221108961613638</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1705223211541596</v>
+        <v>0.2456659634994599</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8990162840077247</v>
+        <v>0.9041174975867263</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39830.1470013373</v>
+        <v>39525.34618441261</v>
       </c>
       <c r="C2" t="n">
-        <v>40232.47171852253</v>
+        <v>39924.59210546728</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90011.43178114138</v>
+        <v>86667.46352208505</v>
       </c>
       <c r="C3" t="n">
-        <v>90920.63816276907</v>
+        <v>87542.89244655056</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36264.78575635602</v>
+        <v>37246.49724994569</v>
       </c>
       <c r="C4" t="n">
-        <v>36631.09672359194</v>
+        <v>37622.72449489463</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>502.6259580457446</v>
+        <v>504.9667474184357</v>
       </c>
       <c r="C5" t="n">
-        <v>507.7029879249945</v>
+        <v>510.0674216347835</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31597.72771953669</v>
+        <v>32616.54911597668</v>
       </c>
       <c r="C6" t="n">
-        <v>31916.8966864007</v>
+        <v>32946.00920805725</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35162.00928901115</v>
+        <v>37007.02771583832</v>
       </c>
       <c r="C7" t="n">
-        <v>35517.18110001126</v>
+        <v>37380.83607660436</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.82686372429082</v>
+        <v>28.21024270069666</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.86639154791426</v>
+        <v>87.76844609481248</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.659456259314219</v>
+        <v>7.374022736010188</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>514.9712408406398</v>
+        <v>514.921067361357</v>
       </c>
       <c r="C3" t="n">
-        <v>5.813054097756233</v>
+        <v>5.822081846643972</v>
       </c>
       <c r="D3" t="n">
-        <v>3460.685790904817</v>
+        <v>3460.469125843886</v>
       </c>
       <c r="E3" t="n">
-        <v>53.256458549308</v>
+        <v>53.32997214900451</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277.395537800159</v>
+        <v>277.4953857713264</v>
       </c>
       <c r="C4" t="n">
-        <v>6.168255292499131</v>
+        <v>6.177637917880793</v>
       </c>
       <c r="D4" t="n">
-        <v>2782.728736012336</v>
+        <v>2782.623080492766</v>
       </c>
       <c r="E4" t="n">
-        <v>53.256458549308</v>
+        <v>53.32997214900451</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>277.395537800159</v>
+        <v>277.4953857713264</v>
       </c>
       <c r="C5" t="n">
-        <v>6.168255292499131</v>
+        <v>6.177637917880793</v>
       </c>
       <c r="D5" t="n">
-        <v>1223.897507337726</v>
+        <v>1224.483197888919</v>
       </c>
       <c r="E5" t="n">
-        <v>53.256458549308</v>
+        <v>53.32997214900451</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.6778263559788</v>
+        <v>163.738981709176</v>
       </c>
       <c r="C6" t="n">
-        <v>6.168255292499131</v>
+        <v>6.177637917880793</v>
       </c>
       <c r="D6" t="n">
-        <v>694.6253886884849</v>
+        <v>694.8954296316717</v>
       </c>
       <c r="E6" t="n">
-        <v>53.256458549308</v>
+        <v>53.32997214900451</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.9624474231503</v>
+        <v>155.0223390297629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5429673721049294</v>
+        <v>0.5438170102606401</v>
       </c>
       <c r="D7" t="n">
-        <v>653.6269349268633</v>
+        <v>653.8862184932367</v>
       </c>
       <c r="E7" t="n">
-        <v>53.256458549308</v>
+        <v>53.32997214900451</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.8764700427576</v>
+        <v>167.9292366955939</v>
       </c>
       <c r="C8" t="n">
-        <v>0.538049036132503</v>
+        <v>0.5388816081571929</v>
       </c>
       <c r="D8" t="n">
-        <v>2782.67404552432</v>
+        <v>2782.733577413611</v>
       </c>
       <c r="E8" t="n">
-        <v>13.4621977823022</v>
+        <v>13.48588671809435</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.9624473066555</v>
+        <v>155.022338913153</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5429673721049294</v>
+        <v>0.5438170102606401</v>
       </c>
       <c r="D9" t="n">
-        <v>2751.766462813459</v>
+        <v>2751.835460130293</v>
       </c>
       <c r="E9" t="n">
-        <v>13.4621977823022</v>
+        <v>13.48588671809435</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.9624474231503</v>
+        <v>155.0223390297629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5429673721049294</v>
+        <v>0.5438170102606401</v>
       </c>
       <c r="D10" t="n">
-        <v>689.1992558687423</v>
+        <v>689.4063384870551</v>
       </c>
       <c r="E10" t="n">
-        <v>66.71865633161019</v>
+        <v>66.81585886709887</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.9624474231503</v>
+        <v>155.0223390297629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5429673721049294</v>
+        <v>0.5438170102606401</v>
       </c>
       <c r="D11" t="n">
-        <v>689.1992558687423</v>
+        <v>689.4063384870551</v>
       </c>
       <c r="E11" t="n">
-        <v>66.71865633161019</v>
+        <v>66.81585886709887</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74.85164758925288</v>
+        <v>74.77803305061968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5429673721049294</v>
+        <v>0.5438170102606401</v>
       </c>
       <c r="D12" t="n">
-        <v>313.938831341664</v>
+        <v>313.6302551418844</v>
       </c>
       <c r="E12" t="n">
-        <v>66.71865633161019</v>
+        <v>66.81585886709887</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.85161237562528</v>
+        <v>74.77910540204766</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>313.9386837329133</v>
+        <v>313.6347501809052</v>
       </c>
       <c r="E13" t="n">
-        <v>66.71974714228067</v>
+        <v>66.81615320327968</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.76026545690979</v>
+        <v>73.67403046423834</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>309.3643597029238</v>
+        <v>309.0029433465822</v>
       </c>
       <c r="E14" t="n">
-        <v>55.0918505070475</v>
+        <v>55.1852777999578</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>115.5844623270643</v>
+        <v>115.5689618943936</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1724322464582263</v>
+        <v>0.1723454019604298</v>
       </c>
       <c r="D15" t="n">
-        <v>485.0714468901922</v>
+        <v>485.005717827461</v>
       </c>
       <c r="E15" t="n">
-        <v>50.71883337488792</v>
+        <v>50.72243142496583</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.53794305392097</v>
+        <v>78.53668337531411</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1724321915164192</v>
+        <v>0.1723478415988254</v>
       </c>
       <c r="D16" t="n">
-        <v>328.9769928722894</v>
+        <v>328.9716404626739</v>
       </c>
       <c r="E16" t="n">
-        <v>50.71940887770026</v>
+        <v>50.72275340088318</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>576.9359843459279</v>
+        <v>576.8972774267095</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>72.67715308976989</v>
+        <v>72.67227714378976</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.7570349675637</v>
+        <v>95.75080932065009</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>400.9347054091892</v>
+        <v>400.9086386255619</v>
       </c>
       <c r="E19" t="n">
-        <v>72.67715308976989</v>
+        <v>72.67227714378976</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.746644072348</v>
+        <v>145.6077545969858</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2208903185733886</v>
+        <v>0.2209138645426217</v>
       </c>
       <c r="D20" t="n">
-        <v>2758.595649259857</v>
+        <v>2758.302015739618</v>
       </c>
       <c r="E20" t="n">
-        <v>7.737004540522688</v>
+        <v>7.753130809470702</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>121.7359512786533</v>
+        <v>121.7393507270354</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2098458026447192</v>
+        <v>0.2098681713154906</v>
       </c>
       <c r="D21" t="n">
-        <v>511.1885628434114</v>
+        <v>511.2030139731729</v>
       </c>
       <c r="E21" t="n">
-        <v>7.737004540522688</v>
+        <v>7.753130809470702</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.8737803568815</v>
+        <v>112.8594270150532</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>472.6025183542631</v>
+        <v>472.5424209120276</v>
       </c>
       <c r="E22" t="n">
-        <v>576.9359843459279</v>
+        <v>576.8972774267095</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>502.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>576.9359843459279</v>
+        <v>576.8972774267095</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.24463722885721</v>
+        <v>73.24385297842719</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>576.9359843459279</v>
+        <v>576.8972774267095</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.4753514274811</v>
+        <v>130.2898313949544</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1815076278507645</v>
+        <v>0.1814162125899261</v>
       </c>
       <c r="D25" t="n">
-        <v>2730.073346940907</v>
+        <v>2729.692915532074</v>
       </c>
       <c r="E25" t="n">
-        <v>42.98182570131079</v>
+        <v>42.96975491773122</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.226574379291</v>
+        <v>512.1734562327508</v>
       </c>
       <c r="C26" t="n">
-        <v>5.224234807365738</v>
+        <v>5.232676793313132</v>
       </c>
       <c r="D26" t="n">
-        <v>3460.685790904817</v>
+        <v>3460.469125843886</v>
       </c>
       <c r="E26" t="n">
-        <v>41.62905231873067</v>
+        <v>41.69945329689412</v>
       </c>
       <c r="F26" t="n">
-        <v>6.992023002524434</v>
+        <v>6.991030455895988</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>212.5033616738316</v>
+        <v>212.4143574743696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4098592195306138</v>
+        <v>0.4103486397807728</v>
       </c>
       <c r="D27" t="n">
-        <v>2886.589668558413</v>
+        <v>2886.382019133946</v>
       </c>
       <c r="E27" t="n">
-        <v>41.62905231873067</v>
+        <v>41.69945329689412</v>
       </c>
       <c r="F27" t="n">
-        <v>7.214824929574022</v>
+        <v>7.21385727155667</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.4201829256652</v>
+        <v>165.4686858492273</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4614356056013728</v>
+        <v>0.4621066997040574</v>
       </c>
       <c r="D28" t="n">
-        <v>2782.67404552432</v>
+        <v>2782.733577413611</v>
       </c>
       <c r="E28" t="n">
-        <v>13.4621977823022</v>
+        <v>13.48588671809435</v>
       </c>
       <c r="F28" t="n">
-        <v>6.936324202672699</v>
+        <v>6.935812580701745</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.3642418734526</v>
+        <v>200.3075599411511</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4098592195306138</v>
+        <v>0.4103486397807728</v>
       </c>
       <c r="D29" t="n">
-        <v>2861.196658463515</v>
+        <v>2861.052988939191</v>
       </c>
       <c r="E29" t="n">
-        <v>55.09125010103287</v>
+        <v>55.18534001498848</v>
       </c>
       <c r="F29" t="n">
-        <v>7.161873189431744</v>
+        <v>7.161030939548668</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.7480714584534</v>
+        <v>145.6081123980647</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2208787515438255</v>
+        <v>0.2209080026285724</v>
       </c>
       <c r="D30" t="n">
-        <v>2758.598311860007</v>
+        <v>2758.302683143354</v>
       </c>
       <c r="E30" t="n">
-        <v>55.09125010103287</v>
+        <v>55.18534001498848</v>
       </c>
       <c r="F30" t="n">
-        <v>7.211075556969296</v>
+        <v>7.210309804103955</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
@@ -2865,19 +2865,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.4765138792589</v>
+        <v>130.2903857421671</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1815104455169466</v>
+        <v>0.1814175141907412</v>
       </c>
       <c r="D31" t="n">
-        <v>2730.075513972541</v>
+        <v>2729.693952983022</v>
       </c>
       <c r="E31" t="n">
-        <v>47.35424242745574</v>
+        <v>47.43266350775387</v>
       </c>
       <c r="F31" t="n">
-        <v>7.230543581953098</v>
+        <v>7.229829836194994</v>
       </c>
       <c r="G31" t="n">
         <v>100</v>
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>122.2922778153553</v>
+        <v>122.101061039265</v>
       </c>
       <c r="C32" t="n">
-        <v>0.009021901949230793</v>
+        <v>0.009197782515181916</v>
       </c>
       <c r="D32" t="n">
-        <v>2730.075513972541</v>
+        <v>2729.693952983022</v>
       </c>
       <c r="E32" t="n">
-        <v>4.372441629347236</v>
+        <v>4.462524399074617</v>
       </c>
       <c r="F32" t="n">
-        <v>8.607235337792693</v>
+        <v>8.597368569479039</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>118.2137829442011</v>
+        <v>117.479832089232</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001980088861927591</v>
+        <v>0.001985155562950619</v>
       </c>
       <c r="D33" t="n">
-        <v>2722.979393335398</v>
+        <v>2721.584456576299</v>
       </c>
       <c r="E33" t="n">
-        <v>4.372441629347236</v>
+        <v>4.462524399074617</v>
       </c>
       <c r="F33" t="n">
-        <v>9.288727278210498</v>
+        <v>9.283980471828492</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.33637165256545</v>
+        <v>17.37678788869351</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001980088861927591</v>
+        <v>0.001985155562950619</v>
       </c>
       <c r="D34" t="n">
-        <v>72.76551121568799</v>
+        <v>72.9347171830277</v>
       </c>
       <c r="E34" t="n">
-        <v>4.372441629347236</v>
+        <v>4.462524399074617</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.35318820492853</v>
+        <v>19.39364250901627</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>81.86191479689431</v>
+        <v>82.03112000675341</v>
       </c>
       <c r="E35" t="n">
-        <v>4.372441629347236</v>
+        <v>4.462524399074617</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.9647086501018</v>
+        <v>499.9293834826599</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3468.163238902896</v>
+        <v>3468.085306601478</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16414502864555</v>
+        <v>10.16422031606535</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>335.6113889122297</v>
       </c>
       <c r="E41" t="n">
-        <v>11.62789663523317</v>
+        <v>11.63087540332189</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>514.9647086501018</v>
+        <v>514.9293834826599</v>
       </c>
       <c r="C42" t="n">
-        <v>5.813358161409058</v>
+        <v>5.821421805824149</v>
       </c>
       <c r="D42" t="n">
-        <v>3460.667172604174</v>
+        <v>3460.499244089973</v>
       </c>
       <c r="E42" t="n">
-        <v>11.62789663523317</v>
+        <v>11.63087540332189</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97388398043354</v>
+        <v>11.97397267287421</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97388398043354</v>
+        <v>11.97397267287421</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97388398043354</v>
+        <v>11.97397267287421</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97388398043354</v>
+        <v>11.97397267287421</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762683027509492</v>
+        <v>4.762718305451262</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.05094889585944178</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.183432453341521</v>
+        <v>2.187020087865386</v>
       </c>
       <c r="C2" t="n">
-        <v>2.587841917640596</v>
+        <v>2.590346714727697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8437271374490349</v>
+        <v>0.844296277185925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1501768200128507</v>
+        <v>0.1503742235067249</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>115.100929844389</v>
+        <v>115.4251455833316</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>30.45262400354926</v>
+        <v>30.47714394085261</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.194105820012195</v>
+        <v>6.194793734331683</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.93305154497824</v>
+        <v>31.0026061532459</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.89907751313885</v>
+        <v>23.93911849460018</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.848266499297151</v>
+        <v>0.8482731744173414</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.652271172686275</v>
+        <v>5.670310561987306</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8343358745209331</v>
+        <v>0.8343740336859031</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.350675485872405</v>
+        <v>1.356988271079201</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7847934264513432</v>
+        <v>0.7849306628155889</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03102737328071422</v>
+        <v>0.0361888255792088</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03057982900652112</v>
+        <v>0.0346263864052417</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03977349369580978</v>
+        <v>0.04059291954468722</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04455499333242112</v>
+        <v>0.04547105276850612</v>
       </c>
       <c r="D12" t="n">
-        <v>0.892683192634842</v>
+        <v>0.8927200289675818</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36104.33695740595</v>
+        <v>36148.69063450189</v>
       </c>
       <c r="C2" t="n">
-        <v>36469.02722970298</v>
+        <v>36513.82892373928</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83017.52527916666</v>
+        <v>83099.5831368931</v>
       </c>
       <c r="C3" t="n">
-        <v>83856.08614057238</v>
+        <v>83938.97286554858</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28187.21833930875</v>
+        <v>28242.87382300736</v>
       </c>
       <c r="C4" t="n">
-        <v>28471.93771647349</v>
+        <v>28528.15537677512</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>416.079976404085</v>
+        <v>416.7313678799135</v>
       </c>
       <c r="C5" t="n">
-        <v>420.2828044485707</v>
+        <v>420.9407756362763</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25871.89045953172</v>
+        <v>25915.99747582332</v>
       </c>
       <c r="C6" t="n">
-        <v>26133.22268639568</v>
+        <v>26177.77522810436</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25036.87129887628</v>
+        <v>25107.80175042211</v>
       </c>
       <c r="C7" t="n">
-        <v>25289.76898876392</v>
+        <v>25361.41590951728</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.21431684368683</v>
+        <v>17.24783197750102</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.72938531418841</v>
+        <v>95.69018706431767</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.837846164944777</v>
+        <v>7.835425987462952</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34591.33411301627</v>
+        <v>34590.79821538366</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1746.491519091221</v>
+        <v>1754.383077542445</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22664.74139000387</v>
+        <v>22665.70139238707</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.725215243153</v>
+        <v>7875.783551977705</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.855004148269</v>
+        <v>5689.897149798599</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21120.94620661881</v>
+        <v>21121.10265278709</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36433.01794510146</v>
+        <v>36441.16643210584</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6948021842592602</v>
+        <v>0.6967592996699962</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>458.8631799679086</v>
+        <v>459.3933708032885</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>863.6359059647909</v>
+        <v>864.23526860022</v>
       </c>
       <c r="E6" t="n">
         <v>513.6783557334001</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299.3094222244734</v>
+        <v>305.8945307307323</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.6367446258673</v>
+        <v>693.8117117782435</v>
       </c>
       <c r="E7" t="n">
         <v>513.6783557334001</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.335417053731</v>
+        <v>238.2191020286922</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.3253951895217</v>
+        <v>620.5699174239163</v>
       </c>
       <c r="E8" t="n">
         <v>513.6783557334001</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.4145067175505</v>
+        <v>237.2948253220251</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.3370276979615</v>
+        <v>619.5769469864009</v>
       </c>
       <c r="E9" t="n">
         <v>513.6783557334001</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.1891757552259</v>
+        <v>177.2374910943996</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.2030165406652</v>
+        <v>555.4395177170309</v>
       </c>
       <c r="E10" t="n">
         <v>513.6783557334001</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.7124596543586</v>
+        <v>108.3399117304433</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.060175103825</v>
+        <v>482.6686180686815</v>
       </c>
       <c r="E11" t="n">
         <v>513.6783557334001</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.4313718257301</v>
+        <v>501.1403335474605</v>
       </c>
       <c r="C3" t="n">
-        <v>7.190007739778467</v>
+        <v>8.025032994285461</v>
       </c>
       <c r="D3" t="n">
-        <v>3415.066267576595</v>
+        <v>3402.018578041493</v>
       </c>
       <c r="E3" t="n">
-        <v>61.26825761728637</v>
+        <v>60.92434915733477</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.1248896890517</v>
+        <v>298.0557099427205</v>
       </c>
       <c r="C4" t="n">
-        <v>7.564488897896066</v>
+        <v>8.355130865830665</v>
       </c>
       <c r="D4" t="n">
-        <v>2764.986026737749</v>
+        <v>2753.292182080808</v>
       </c>
       <c r="E4" t="n">
-        <v>61.26825761728637</v>
+        <v>60.92434915733477</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>291.097326418417</v>
+        <v>297.4577868290163</v>
       </c>
       <c r="C5" t="n">
-        <v>7.564488897896066</v>
+        <v>8.355130865830665</v>
       </c>
       <c r="D5" t="n">
-        <v>1295.96557719015</v>
+        <v>1330.758982554885</v>
       </c>
       <c r="E5" t="n">
-        <v>61.26825761728637</v>
+        <v>60.92434915733477</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.6780864909595</v>
+        <v>169.1141405514226</v>
       </c>
       <c r="C6" t="n">
-        <v>7.564488897896066</v>
+        <v>8.355130865830665</v>
       </c>
       <c r="D6" t="n">
-        <v>704.085886713929</v>
+        <v>719.4198010359164</v>
       </c>
       <c r="E6" t="n">
-        <v>61.26825761728637</v>
+        <v>60.92434915733477</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.1229746648902</v>
+        <v>165.8702624049255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6689177971500216</v>
+        <v>0.716185456073574</v>
       </c>
       <c r="D7" t="n">
-        <v>689.0569000571609</v>
+        <v>701.0327734735635</v>
       </c>
       <c r="E7" t="n">
-        <v>61.26825761728637</v>
+        <v>60.92434915733477</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.3598623570105</v>
+        <v>177.6990824738147</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6618173329375955</v>
+        <v>0.7091315704264941</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.089303054158</v>
+        <v>2793.293849081163</v>
       </c>
       <c r="E8" t="n">
-        <v>16.60472722765563</v>
+        <v>17.07239934099402</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.1229745319849</v>
+        <v>165.8702622662119</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6689177971500216</v>
+        <v>0.716185456073574</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.825691449449</v>
+        <v>2763.715626049118</v>
       </c>
       <c r="E9" t="n">
-        <v>16.60472722765563</v>
+        <v>17.07239934099402</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.1229746648902</v>
+        <v>165.8702624049255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6689177971500216</v>
+        <v>0.716185456073574</v>
       </c>
       <c r="D10" t="n">
-        <v>725.0683324768504</v>
+        <v>734.3446637322348</v>
       </c>
       <c r="E10" t="n">
-        <v>77.872984844942</v>
+        <v>77.9967484983288</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.1229746648902</v>
+        <v>165.8702624049255</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6689177971500216</v>
+        <v>0.716185456073574</v>
       </c>
       <c r="D11" t="n">
-        <v>725.0683324768504</v>
+        <v>734.3446637322348</v>
       </c>
       <c r="E11" t="n">
-        <v>77.87632571924506</v>
+        <v>77.99998607813183</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.21098388404999</v>
+        <v>61.94484327506854</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6689177971500216</v>
+        <v>0.716185456073574</v>
       </c>
       <c r="D12" t="n">
-        <v>273.5555639569555</v>
+        <v>259.8857583051989</v>
       </c>
       <c r="E12" t="n">
-        <v>77.872984844942</v>
+        <v>77.9967484983288</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.21243437361767</v>
+        <v>61.94601968428822</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>273.5616358886232</v>
+        <v>259.8906810104227</v>
       </c>
       <c r="E13" t="n">
-        <v>69.86182957950078</v>
+        <v>77.9966843841771</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.21243437361767</v>
+        <v>61.94601968428822</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>273.5616358886232</v>
+        <v>259.8906810104227</v>
       </c>
       <c r="E14" t="n">
-        <v>69.86182957950078</v>
+        <v>77.9966843841771</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112.9548231730792</v>
+        <v>111.0615038853426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.158202952283363</v>
+        <v>0.1485667490597372</v>
       </c>
       <c r="D15" t="n">
-        <v>473.9260520628496</v>
+        <v>465.9081319679073</v>
       </c>
       <c r="E15" t="n">
-        <v>53.00772747596343</v>
+        <v>53.57731912823405</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.30116061903686</v>
+        <v>78.04564624016575</v>
       </c>
       <c r="C16" t="n">
-        <v>0.158203383714124</v>
+        <v>0.1485726704392421</v>
       </c>
       <c r="D16" t="n">
-        <v>327.972210438168</v>
+        <v>326.8925486009668</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0085804163909</v>
+        <v>53.57843204493545</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.6461430448668</v>
+        <v>93.72769202080137</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>396.2834009288574</v>
+        <v>392.4378464910953</v>
       </c>
       <c r="E19" t="n">
         <v>74.22428363025593</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>124.324780086209</v>
+        <v>124.4885829757116</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2254901819734752</v>
+        <v>0.2286104157338061</v>
       </c>
       <c r="D20" t="n">
-        <v>2712.357619435051</v>
+        <v>2692.609491620315</v>
       </c>
       <c r="E20" t="n">
-        <v>10.94790638192323</v>
+        <v>13.09072037217575</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.3945140241024</v>
+        <v>122.8350278304267</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2142156728748014</v>
+        <v>0.2171798949471157</v>
       </c>
       <c r="D21" t="n">
-        <v>513.9885179980228</v>
+        <v>515.8618538253211</v>
       </c>
       <c r="E21" t="n">
-        <v>10.94790638192323</v>
+        <v>13.09072037217575</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.3419781257899</v>
+        <v>108.56521176128</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>462.0018624126824</v>
+        <v>454.5625416444796</v>
       </c>
       <c r="E22" t="n">
         <v>589.2176333007849</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.10469715834219</v>
+        <v>72.98899904365943</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.5160262159938</v>
+        <v>112.6052242593598</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1665294234561715</v>
+        <v>0.1563860516418287</v>
       </c>
       <c r="D25" t="n">
-        <v>2669.741181175213</v>
+        <v>2639.424745224374</v>
       </c>
       <c r="E25" t="n">
-        <v>42.05988794983506</v>
+        <v>40.48791086593953</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499.4671613785167</v>
+        <v>498.5405883359834</v>
       </c>
       <c r="C26" t="n">
-        <v>6.579149193879934</v>
+        <v>7.489054165334707</v>
       </c>
       <c r="D26" t="n">
-        <v>3415.066267576595</v>
+        <v>3402.018578041493</v>
       </c>
       <c r="E26" t="n">
-        <v>53.256458549308</v>
+        <v>60.92434915733477</v>
       </c>
       <c r="F26" t="n">
-        <v>6.831785638795432</v>
+        <v>6.75843894834548</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.3163157996871</v>
+        <v>190.4804445904447</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4868033817932058</v>
+        <v>0.5306601970918804</v>
       </c>
       <c r="D27" t="n">
-        <v>2848.630060343886</v>
+        <v>2833.585960196388</v>
       </c>
       <c r="E27" t="n">
-        <v>53.256458549308</v>
+        <v>60.92434915733477</v>
       </c>
       <c r="F27" t="n">
-        <v>7.057739621447231</v>
+        <v>6.986837466124692</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.4245657110611</v>
+        <v>174.8521561778272</v>
       </c>
       <c r="C28" t="n">
-        <v>0.565269553783077</v>
+        <v>0.6136086129103743</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.089303054158</v>
+        <v>2793.293849081163</v>
       </c>
       <c r="E28" t="n">
-        <v>16.60472722765563</v>
+        <v>17.07239934099402</v>
       </c>
       <c r="F28" t="n">
-        <v>6.865201796028544</v>
+        <v>6.833839538408304</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.9646455307138</v>
+        <v>186.4562471885836</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4868033817932058</v>
+        <v>0.5306601970918804</v>
       </c>
       <c r="D29" t="n">
-        <v>2834.953673826214</v>
+        <v>2824.766579587649</v>
       </c>
       <c r="E29" t="n">
-        <v>69.86118577696362</v>
+        <v>77.9967484983288</v>
       </c>
       <c r="F29" t="n">
-        <v>7.028408725547748</v>
+        <v>6.967731907085139</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.3235327238704</v>
+        <v>124.4886323504348</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2254863440869855</v>
+        <v>0.2286069355340737</v>
       </c>
       <c r="D30" t="n">
-        <v>2712.355292789528</v>
+        <v>2692.609700236108</v>
       </c>
       <c r="E30" t="n">
-        <v>69.86118577696362</v>
+        <v>77.9967484983288</v>
       </c>
       <c r="F30" t="n">
-        <v>7.088424240729758</v>
+        <v>7.03259093728087</v>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>99.09738257959665</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.5155585680584</v>
+        <v>112.6053539157294</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1665268765870265</v>
+        <v>0.1563867222895894</v>
       </c>
       <c r="D31" t="n">
-        <v>2669.739126035236</v>
+        <v>2639.42533738347</v>
       </c>
       <c r="E31" t="n">
-        <v>58.91334625083525</v>
+        <v>64.90734023603427</v>
       </c>
       <c r="F31" t="n">
-        <v>7.115519156560518</v>
+        <v>7.064979449554693</v>
       </c>
       <c r="G31" t="n">
-        <v>98.7319433151949</v>
+        <v>97.49961378984801</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92.34783649943989</v>
+        <v>79.4141918019792</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03265612660473366</v>
+        <v>0.04630094080412805</v>
       </c>
       <c r="D32" t="n">
-        <v>2669.739126035236</v>
+        <v>2639.42533738347</v>
       </c>
       <c r="E32" t="n">
-        <v>16.85324916310988</v>
+        <v>24.41825233924165</v>
       </c>
       <c r="F32" t="n">
-        <v>7.856314385915889</v>
+        <v>7.611739006825207</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>99.88699105916416</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.24998661968817</v>
+        <v>24.74894374547256</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00268595166119856</v>
+        <v>0.003122794860660038</v>
       </c>
       <c r="D33" t="n">
-        <v>2503.112602496535</v>
+        <v>2395.961241946765</v>
       </c>
       <c r="E33" t="n">
-        <v>16.85324916310988</v>
+        <v>24.41825233924165</v>
       </c>
       <c r="F33" t="n">
-        <v>8.486172752754065</v>
+        <v>8.058197214222336</v>
       </c>
       <c r="G33" t="n">
-        <v>98.43121392037372</v>
+        <v>93.8545167363655</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.24998661968817</v>
+        <v>24.74894374547256</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00268595166119856</v>
+        <v>0.003122794860660038</v>
       </c>
       <c r="D34" t="n">
-        <v>93.32756763163582</v>
+        <v>103.7793486846843</v>
       </c>
       <c r="E34" t="n">
-        <v>16.85324916310988</v>
+        <v>24.41825233924165</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.27096784221703</v>
+        <v>26.77169696096973</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>102.4238755317141</v>
+        <v>112.8754499566176</v>
       </c>
       <c r="E35" t="n">
-        <v>16.85324916310988</v>
+        <v>24.41825233924165</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>499.9647086501018</v>
+        <v>499.9293834826599</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3468.163238902896</v>
+        <v>3468.085306601478</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16414502864555</v>
+        <v>10.16422031606535</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>514.9647086501018</v>
+        <v>514.9293834826599</v>
       </c>
       <c r="C42" t="n">
-        <v>5.813358161409058</v>
+        <v>5.821421805824149</v>
       </c>
       <c r="D42" t="n">
-        <v>3460.667172604174</v>
+        <v>3460.499244089973</v>
       </c>
       <c r="E42" t="n">
-        <v>11.62789663523317</v>
+        <v>11.63087540332189</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
